--- a/EEE577-Datasheet.xlsx
+++ b/EEE577-Datasheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uttam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D305B19-C626-459D-9285-E4CED5367143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A6EA3-5DA5-43C9-BE17-13A1F58C1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A834EEDE-1D9E-47FB-8F51-5B64AEAE151D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A834EEDE-1D9E-47FB-8F51-5B64AEAE151D}"/>
   </bookViews>
   <sheets>
     <sheet name="BusData" sheetId="1" r:id="rId1"/>
     <sheet name="Generator at Each Bus" sheetId="2" r:id="rId2"/>
-    <sheet name="Branch Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Branch Data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -734,10 +734,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -748,7 +747,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -756,11 +755,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
@@ -773,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA51E4-56AE-4F6F-A7B5-CC8F0525D196}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,5043 +5522,5464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE26B3E-C3B3-4680-A755-F49B30E6155C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D7DDD5-7446-40C1-BEF1-F0860474C8E9}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="22.85546875" style="4" customWidth="1"/>
-    <col min="6" max="16" width="9.140625" style="4"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>101</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>102</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>0.24</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1.4E-2</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>0.46100000000000002</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>175</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <v>193</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>200</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>101</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>103</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>55</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>0.51</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>2.9</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>5.5E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>175</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <v>208</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>220</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>101</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>105</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>0.33</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>1.2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>2.3E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>175</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <v>208</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>220</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>102</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>104</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>33</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>0.39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>1.7</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>0.127</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>175</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <v>208</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>220</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>102</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>106</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>0.48</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>2.6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>0.05</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>0.192</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>175</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <v>208</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>220</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>103</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>109</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>0.38</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>1.6</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>3.1E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>175</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <v>208</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>220</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>103</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>124</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.02</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>768</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>2E-3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>510</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>104</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>109</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
         <v>27</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>0.36</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>1.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>2.7E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>0.104</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>175</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <v>208</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>220</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>105</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>110</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>0.34</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>1.2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>2.3E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>2.4E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>175</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>208</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>220</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>106</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>110</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>0.33</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>35</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1.4E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>2.4590000000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>175</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <v>193</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <v>200</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>107</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>108</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>0.3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>0.8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>1.6E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>175</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>208</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>220</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>107</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>203</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
         <v>42</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>0.44</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>0.161</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>175</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <v>208</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>220</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>108</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>109</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
         <v>43</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>0.44</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>175</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <v>208</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>220</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>110</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>43</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>0.44</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <v>175</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <v>208</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <v>220</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>109</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>111</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0.02</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>768</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>2E-3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>400</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <v>510</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <v>600</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <v>1.03</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>109</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>112</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0.02</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>768</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>2E-3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <v>510</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <v>1.03</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>110</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>111</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0.02</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>768</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>2E-3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <v>510</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>110</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>112</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>0.02</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>768</v>
       </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>2E-3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>400</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <v>510</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <v>600</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>111</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
         <v>113</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
         <v>33</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>0.4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>11</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>0.8</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>0.1</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <v>625</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>111</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
         <v>114</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
         <v>29</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>0.39</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21">
         <v>0.7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <v>625</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>112</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
         <v>113</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
         <v>33</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>0.4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>11</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>0.8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>0.1</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <v>625</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>112</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
         <v>123</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
         <v>67</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>0.52</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>11</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23">
         <v>1.6</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>1.2E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <v>625</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>113</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
         <v>123</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
         <v>60</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>0.49</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>11</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>1.5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>0.182</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <v>625</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>113</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
         <v>215</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25">
         <v>52</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>0.47</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>11</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25">
         <v>1.3</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>0.01</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25">
         <v>0.158</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25">
         <v>500</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <v>600</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <v>625</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>114</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
         <v>116</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
         <v>27</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>0.38</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>11</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>0.7</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <v>625</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>115</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
         <v>116</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
         <v>12</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>0.33</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>11</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27">
         <v>0.3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>2E-3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <v>625</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>115</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
         <v>121</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
         <v>34</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>0.41</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>11</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28">
         <v>0.8</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28">
         <v>500</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <v>600</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <v>625</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>115</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
         <v>121</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
         <v>34</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>0.41</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29">
         <v>0.8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29">
         <v>500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <v>600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <v>625</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>115</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
         <v>124</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
         <v>36</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>0.41</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>11</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30">
         <v>0.9</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>0.109</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30">
         <v>500</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <v>600</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <v>625</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>116</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
         <v>117</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
         <v>18</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>0.35</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
         <v>11</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31">
         <v>0.4</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31">
         <v>5.5E-2</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31">
         <v>500</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <v>600</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <v>625</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>116</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
         <v>119</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>0.34</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <v>11</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32">
         <v>0.4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <v>2.3E-2</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <v>625</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>117</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
         <v>118</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>0.32</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <v>11</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>0.2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>2E-3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33">
         <v>1.4E-2</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33">
         <v>0.03</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <v>625</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>117</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
         <v>122</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34">
         <v>73</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>0.54</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <v>11</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>1.8</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>1.4E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34">
         <v>0.105</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>0.221</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34">
         <v>500</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <v>600</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <v>625</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>118</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
         <v>121</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
         <v>18</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>0.35</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <v>11</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35">
         <v>0.4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <v>5.5E-2</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <v>625</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>118</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
         <v>121</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36">
         <v>18</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>0.35</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>0.4</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>5.5E-2</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36">
         <v>500</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <v>600</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <v>625</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>119</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
         <v>120</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
         <v>27.5</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>0.38</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
         <v>11</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37">
         <v>0.7</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
         <v>0.04</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37">
         <v>500</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <v>600</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <v>625</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>119</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
         <v>120</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
         <v>27.5</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>0.38</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>11</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38">
         <v>0.7</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38">
         <v>0.04</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38">
         <v>500</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <v>600</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <v>625</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>120</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
         <v>123</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
         <v>15</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>0.34</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39">
         <v>0.4</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39">
         <v>500</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <v>600</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <v>625</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>120</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
         <v>123</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40">
         <v>15</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>0.34</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <v>11</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40">
         <v>0.4</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40">
         <v>500</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <v>600</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <v>625</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>121</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
         <v>122</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3">
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="F41">
         <v>47</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>0.45</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
         <v>11</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41">
         <v>1.2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41">
         <v>0.14199999999999999</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <v>625</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>123</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3">
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
         <v>217</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
         <v>51</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>0.46</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <v>11</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42">
         <v>1.3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>0.01</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42">
         <v>0.155</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42">
         <v>600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <v>625</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>201</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
         <v>202</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3">
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>0.24</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
         <v>16</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43">
         <v>1.4E-2</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43">
         <v>0.46100000000000002</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43">
         <v>175</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43">
         <v>193</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>201</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
         <v>203</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
+      <c r="E44">
+        <v>27</v>
+      </c>
+      <c r="F44">
         <v>55</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>0.51</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>10</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44">
         <v>2.9</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>5.5E-2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44">
         <v>175</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44">
         <v>208</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <v>220</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>201</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
         <v>205</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3">
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
         <v>22</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>0.33</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
         <v>10</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45">
         <v>1.2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45">
         <v>2.3E-2</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45">
         <v>175</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45">
         <v>208</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <v>220</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>202</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3">
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
         <v>204</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3">
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46">
         <v>33</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>0.39</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <v>10</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46">
         <v>1.7</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46">
         <v>0.127</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46">
         <v>175</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46">
         <v>208</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <v>220</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>202</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3">
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47">
         <v>206</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3">
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
         <v>50</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>0.48</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47">
         <v>2.6</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>0.05</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47">
         <v>0.192</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47">
         <v>175</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47">
         <v>208</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <v>220</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>203</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3">
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
         <v>209</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
+      <c r="E48">
+        <v>33</v>
+      </c>
+      <c r="F48">
         <v>31</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>0.38</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
         <v>10</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48">
         <v>1.6</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>3.1E-2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48">
         <v>175</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48">
         <v>208</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <v>220</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>203</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3">
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
         <v>224</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>0.02</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
         <v>768</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>2E-3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49">
         <v>510</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>204</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50">
         <v>209</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3">
+      <c r="E50">
+        <v>33</v>
+      </c>
+      <c r="F50">
         <v>27</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>0.36</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50">
         <v>10</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50">
         <v>1.4</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>2.7E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <v>0.104</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50">
         <v>175</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50">
         <v>208</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <v>220</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>205</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3">
+      <c r="C51">
+        <v>29</v>
+      </c>
+      <c r="D51">
         <v>210</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3">
+      <c r="E51">
+        <v>34</v>
+      </c>
+      <c r="F51">
         <v>23</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51">
         <v>0.34</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51">
         <v>10</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51">
         <v>1.2</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51">
         <v>2.3E-2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51">
         <v>2.4E-2</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51">
         <v>175</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51">
         <v>208</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51">
         <v>220</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>206</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3">
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
         <v>210</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3">
+      <c r="E52">
+        <v>34</v>
+      </c>
+      <c r="F52">
         <v>16</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>0.33</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52">
         <v>35</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>1.4E-2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52">
         <v>2.4590000000000001</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52">
         <v>175</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52">
         <v>193</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>207</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3">
+      <c r="C53">
+        <v>31</v>
+      </c>
+      <c r="D53">
         <v>208</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3">
+      <c r="E53">
+        <v>32</v>
+      </c>
+      <c r="F53">
         <v>16</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53">
         <v>0.3</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53">
         <v>10</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53">
         <v>0.8</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53">
         <v>1.6E-2</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53">
         <v>175</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53">
         <v>208</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53">
         <v>220</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>208</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3">
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
         <v>209</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3">
+      <c r="E54">
+        <v>33</v>
+      </c>
+      <c r="F54">
         <v>43</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>0.44</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54">
         <v>175</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54">
         <v>208</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54">
         <v>220</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>208</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3">
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
         <v>210</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3">
+      <c r="E55">
+        <v>34</v>
+      </c>
+      <c r="F55">
         <v>43</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55">
         <v>0.44</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55">
         <v>10</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55">
         <v>175</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55">
         <v>208</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55">
         <v>220</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>209</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3">
+      <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56">
         <v>211</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="E56">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>0.02</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56">
         <v>768</v>
       </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>2E-3</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>400</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56">
         <v>510</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56">
         <v>600</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56">
         <v>1.03</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>209</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3">
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
         <v>212</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="E57">
+        <v>36</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>0.02</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57">
         <v>768</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>2E-3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57">
         <v>510</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57">
         <v>1.03</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>210</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3">
+      <c r="C58">
+        <v>34</v>
+      </c>
+      <c r="D58">
         <v>211</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="E58">
+        <v>35</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>0.02</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58">
         <v>768</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>2E-3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58">
         <v>510</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>210</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3">
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
         <v>212</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="E59">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>0.02</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59">
         <v>768</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>2E-3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59">
         <v>510</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>211</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3">
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
         <v>213</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3">
+      <c r="E60">
+        <v>37</v>
+      </c>
+      <c r="F60">
         <v>33</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>0.4</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60">
         <v>11</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60">
         <v>0.8</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60">
         <v>0.1</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60">
         <v>625</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>211</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3">
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
         <v>214</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
+      <c r="E61">
+        <v>38</v>
+      </c>
+      <c r="F61">
         <v>29</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>0.39</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61">
         <v>11</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61">
         <v>0.7</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61">
         <v>625</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>212</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3">
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62">
         <v>213</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3">
+      <c r="E62">
+        <v>37</v>
+      </c>
+      <c r="F62">
         <v>33</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62">
         <v>0.4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62">
         <v>11</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62">
         <v>0.8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62">
         <v>0.1</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62">
         <v>625</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>212</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3">
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63">
         <v>223</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3">
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
         <v>67</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63">
         <v>0.52</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63">
         <v>11</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63">
         <v>1.6</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63">
         <v>1.2E-2</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63">
         <v>500</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63">
         <v>600</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63">
         <v>625</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>213</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3">
+      <c r="C64">
+        <v>37</v>
+      </c>
+      <c r="D64">
         <v>223</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3">
+      <c r="E64">
+        <v>47</v>
+      </c>
+      <c r="F64">
         <v>60</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>0.49</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64">
         <v>11</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64">
         <v>1.5</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64">
         <v>0.182</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64">
         <v>500</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64">
         <v>600</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64">
         <v>625</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>214</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3">
+      <c r="C65">
+        <v>38</v>
+      </c>
+      <c r="D65">
         <v>216</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
         <v>27</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65">
         <v>0.38</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65">
         <v>11</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65">
         <v>0.7</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65">
         <v>500</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65">
         <v>600</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65">
         <v>625</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>215</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3">
+      <c r="C66">
+        <v>39</v>
+      </c>
+      <c r="D66">
         <v>216</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3">
+      <c r="E66">
+        <v>40</v>
+      </c>
+      <c r="F66">
         <v>12</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66">
         <v>0.33</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66">
         <v>11</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66">
         <v>0.3</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66">
         <v>2E-3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66">
         <v>625</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>215</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3">
+      <c r="C67">
+        <v>39</v>
+      </c>
+      <c r="D67">
         <v>221</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3">
+      <c r="E67">
+        <v>45</v>
+      </c>
+      <c r="F67">
         <v>34</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67">
         <v>0.41</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67">
         <v>11</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67">
         <v>0.8</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67">
         <v>500</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67">
         <v>600</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67">
         <v>625</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>215</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3">
+      <c r="C68">
+        <v>39</v>
+      </c>
+      <c r="D68">
         <v>221</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3">
+      <c r="E68">
+        <v>45</v>
+      </c>
+      <c r="F68">
         <v>34</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68">
         <v>0.41</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68">
         <v>11</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68">
         <v>0.8</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68">
         <v>500</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68">
         <v>600</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68">
         <v>625</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>215</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3">
+      <c r="C69">
+        <v>39</v>
+      </c>
+      <c r="D69">
         <v>224</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3">
+      <c r="E69">
+        <v>48</v>
+      </c>
+      <c r="F69">
         <v>36</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69">
         <v>0.41</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69">
         <v>11</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69">
         <v>0.9</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69">
         <v>0.109</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69">
         <v>500</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69">
         <v>600</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69">
         <v>625</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>216</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3">
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70">
         <v>217</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3">
+      <c r="E70">
+        <v>41</v>
+      </c>
+      <c r="F70">
         <v>18</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70">
         <v>0.35</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70">
         <v>11</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70">
         <v>0.4</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70">
         <v>5.5E-2</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70">
         <v>500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70">
         <v>600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70">
         <v>625</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>216</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3">
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
         <v>219</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3">
+      <c r="E71">
+        <v>43</v>
+      </c>
+      <c r="F71">
         <v>16</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71">
         <v>0.34</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71">
         <v>11</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71">
         <v>0.4</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71">
         <v>2.3E-2</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71">
         <v>500</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71">
         <v>600</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71">
         <v>625</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>217</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3">
+      <c r="C72">
+        <v>41</v>
+      </c>
+      <c r="D72">
         <v>218</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3">
+      <c r="E72">
+        <v>42</v>
+      </c>
+      <c r="F72">
         <v>10</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72">
         <v>0.32</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72">
         <v>0.2</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72">
         <v>2E-3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72">
         <v>1.4E-2</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72">
         <v>0.03</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72">
         <v>600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72">
         <v>625</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>217</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3">
+      <c r="C73">
+        <v>41</v>
+      </c>
+      <c r="D73">
         <v>222</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3">
+      <c r="E73">
+        <v>46</v>
+      </c>
+      <c r="F73">
         <v>73</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73">
         <v>0.54</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73">
         <v>11</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73">
         <v>1.8</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73">
         <v>1.4E-2</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73">
         <v>0.105</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73">
         <v>0.221</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73">
         <v>500</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73">
         <v>600</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73">
         <v>625</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>218</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3">
+      <c r="C74">
+        <v>42</v>
+      </c>
+      <c r="D74">
         <v>221</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3">
+      <c r="E74">
+        <v>45</v>
+      </c>
+      <c r="F74">
         <v>18</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74">
         <v>0.35</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74">
         <v>11</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74">
         <v>0.4</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74">
         <v>5.5E-2</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74">
         <v>500</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74">
         <v>600</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74">
         <v>625</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>218</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3">
+      <c r="C75">
+        <v>42</v>
+      </c>
+      <c r="D75">
         <v>221</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3">
+      <c r="E75">
+        <v>45</v>
+      </c>
+      <c r="F75">
         <v>18</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75">
         <v>0.35</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75">
         <v>11</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75">
         <v>0.4</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75">
         <v>5.5E-2</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75">
         <v>500</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75">
         <v>600</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75">
         <v>625</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>219</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3">
+      <c r="C76">
+        <v>43</v>
+      </c>
+      <c r="D76">
         <v>220</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3">
+      <c r="E76">
+        <v>44</v>
+      </c>
+      <c r="F76">
         <v>27.5</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76">
         <v>0.38</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76">
         <v>11</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76">
         <v>0.7</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76">
         <v>0.04</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76">
         <v>625</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>219</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3">
+      <c r="C77">
+        <v>43</v>
+      </c>
+      <c r="D77">
         <v>220</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3">
+      <c r="E77">
+        <v>44</v>
+      </c>
+      <c r="F77">
         <v>27.5</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77">
         <v>0.38</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77">
         <v>11</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77">
         <v>0.7</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77">
         <v>0.04</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77">
         <v>500</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77">
         <v>600</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77">
         <v>625</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>220</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3">
+      <c r="C78">
+        <v>44</v>
+      </c>
+      <c r="D78">
         <v>223</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3">
+      <c r="E78">
+        <v>47</v>
+      </c>
+      <c r="F78">
         <v>15</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78">
         <v>0.34</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78">
         <v>11</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78">
         <v>0.4</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78">
         <v>500</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78">
         <v>600</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78">
         <v>625</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>220</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3">
+      <c r="C79">
+        <v>44</v>
+      </c>
+      <c r="D79">
         <v>223</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3">
+      <c r="E79">
+        <v>47</v>
+      </c>
+      <c r="F79">
         <v>15</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79">
         <v>0.34</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79">
         <v>11</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79">
         <v>0.4</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79">
         <v>500</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79">
         <v>600</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79">
         <v>625</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>221</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3">
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80">
         <v>222</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3">
+      <c r="E80">
+        <v>46</v>
+      </c>
+      <c r="F80">
         <v>47</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80">
         <v>0.45</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80">
         <v>11</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80">
         <v>1.2</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80">
         <v>0.14199999999999999</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80">
         <v>500</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80">
         <v>600</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80">
         <v>625</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>301</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3">
+      <c r="C81">
+        <v>49</v>
+      </c>
+      <c r="D81">
         <v>302</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3">
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81">
         <v>0.24</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81">
         <v>16</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81">
         <v>1.4E-2</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81">
         <v>0.46100000000000002</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81">
         <v>175</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81">
         <v>193</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>301</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3">
+      <c r="C82">
+        <v>49</v>
+      </c>
+      <c r="D82">
         <v>303</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3">
+      <c r="E82">
+        <v>51</v>
+      </c>
+      <c r="F82">
         <v>55</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82">
         <v>0.51</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82">
         <v>10</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82">
         <v>2.9</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82">
         <v>5.5E-2</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82">
         <v>175</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82">
         <v>208</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82">
         <v>220</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>301</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3">
+      <c r="C83">
+        <v>49</v>
+      </c>
+      <c r="D83">
         <v>305</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3">
+      <c r="E83">
+        <v>53</v>
+      </c>
+      <c r="F83">
         <v>22</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83">
         <v>0.33</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83">
         <v>10</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83">
         <v>1.2</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83">
         <v>2.3E-2</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83">
         <v>175</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83">
         <v>208</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83">
         <v>220</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>302</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3">
+      <c r="C84">
+        <v>50</v>
+      </c>
+      <c r="D84">
         <v>304</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3">
+      <c r="E84">
+        <v>52</v>
+      </c>
+      <c r="F84">
         <v>33</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84">
         <v>0.39</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84">
         <v>10</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84">
         <v>1.7</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84">
         <v>0.127</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84">
         <v>175</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84">
         <v>208</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84">
         <v>220</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>185</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>302</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3">
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
         <v>306</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3">
+      <c r="E85">
+        <v>54</v>
+      </c>
+      <c r="F85">
         <v>50</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85">
         <v>0.48</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85">
         <v>10</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85">
         <v>2.6</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85">
         <v>0.05</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85">
         <v>0.192</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85">
         <v>175</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85">
         <v>208</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85">
         <v>220</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>303</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3">
+      <c r="C86">
+        <v>51</v>
+      </c>
+      <c r="D86">
         <v>309</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3">
+      <c r="E86">
+        <v>57</v>
+      </c>
+      <c r="F86">
         <v>31</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86">
         <v>0.38</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86">
         <v>10</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86">
         <v>1.6</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86">
         <v>3.1E-2</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86">
         <v>175</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86">
         <v>208</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86">
         <v>220</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>187</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>303</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3">
+      <c r="C87">
+        <v>51</v>
+      </c>
+      <c r="D87">
         <v>324</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="E87">
+        <v>72</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
         <v>0.02</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87">
         <v>768</v>
       </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>2E-3</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L87" s="3">
-        <v>0</v>
-      </c>
-      <c r="M87" s="3">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
         <v>400</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N87">
         <v>510</v>
       </c>
-      <c r="O87" s="3">
+      <c r="O87">
         <v>600</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>304</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3">
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88">
         <v>309</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3">
+      <c r="E88">
+        <v>57</v>
+      </c>
+      <c r="F88">
         <v>27</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88">
         <v>0.36</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88">
         <v>10</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88">
         <v>1.4</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88">
         <v>2.7E-2</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88">
         <v>0.104</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88">
         <v>175</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N88">
         <v>208</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O88">
         <v>220</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>305</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3">
+      <c r="C89">
+        <v>53</v>
+      </c>
+      <c r="D89">
         <v>310</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3">
+      <c r="E89">
+        <v>58</v>
+      </c>
+      <c r="F89">
         <v>23</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>0.34</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>10</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>1.2</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>2.3E-2</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>2.4E-2</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89">
         <v>175</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89">
         <v>208</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89">
         <v>220</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>190</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>306</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3">
+      <c r="C90">
+        <v>54</v>
+      </c>
+      <c r="D90">
         <v>310</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3">
+      <c r="E90">
+        <v>58</v>
+      </c>
+      <c r="F90">
         <v>16</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>0.33</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>35</v>
       </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <v>1.4E-2</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>2.4590000000000001</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M90">
         <v>175</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90">
         <v>193</v>
       </c>
-      <c r="O90" s="3">
+      <c r="O90">
         <v>200</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>307</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3">
+      <c r="C91">
+        <v>55</v>
+      </c>
+      <c r="D91">
         <v>308</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3">
+      <c r="E91">
+        <v>56</v>
+      </c>
+      <c r="F91">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>0.3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>0.8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>1.6E-2</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91">
         <v>175</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91">
         <v>208</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91">
         <v>220</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>308</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3">
+      <c r="C92">
+        <v>56</v>
+      </c>
+      <c r="D92">
         <v>309</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3">
+      <c r="E92">
+        <v>57</v>
+      </c>
+      <c r="F92">
         <v>43</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>0.44</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>10</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M92">
         <v>175</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N92">
         <v>208</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O92">
         <v>220</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>308</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3">
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
         <v>310</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3">
+      <c r="E93">
+        <v>58</v>
+      </c>
+      <c r="F93">
         <v>43</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>0.44</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>10</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93">
         <v>175</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N93">
         <v>208</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93">
         <v>220</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" t="s">
         <v>194</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>309</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3">
+      <c r="C94">
+        <v>57</v>
+      </c>
+      <c r="D94">
         <v>311</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="E94">
+        <v>59</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>0.02</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>768</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>2E-3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94">
         <v>510</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94">
         <v>1.03</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" t="s">
         <v>195</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>309</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3">
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95">
         <v>312</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
+      <c r="E95">
+        <v>60</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>0.02</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>768</v>
       </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>2E-3</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L95" s="3">
-        <v>0</v>
-      </c>
-      <c r="M95" s="3">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
         <v>400</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95">
         <v>510</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95">
         <v>600</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P95">
         <v>1.03</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>310</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3">
+      <c r="C96">
+        <v>58</v>
+      </c>
+      <c r="D96">
         <v>311</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="E96">
+        <v>59</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
         <v>0.02</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>768</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>2E-3</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N96">
         <v>510</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96">
         <v>600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>310</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3">
+      <c r="C97">
+        <v>58</v>
+      </c>
+      <c r="D97">
         <v>312</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
+      <c r="E97">
+        <v>60</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
         <v>0.02</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>768</v>
       </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>2E-3</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L97" s="3">
-        <v>0</v>
-      </c>
-      <c r="M97" s="3">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>400</v>
       </c>
-      <c r="N97" s="3">
+      <c r="N97">
         <v>510</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O97">
         <v>600</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97">
         <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>311</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3">
+      <c r="C98">
+        <v>59</v>
+      </c>
+      <c r="D98">
         <v>313</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3">
+      <c r="E98">
+        <v>61</v>
+      </c>
+      <c r="F98">
         <v>33</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>0.4</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>11</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>0.8</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>0.1</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98">
         <v>500</v>
       </c>
-      <c r="N98" s="3">
+      <c r="N98">
         <v>600</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98">
         <v>625</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>311</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3">
+      <c r="C99">
+        <v>59</v>
+      </c>
+      <c r="D99">
         <v>314</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3">
+      <c r="E99">
+        <v>62</v>
+      </c>
+      <c r="F99">
         <v>29</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>0.39</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>11</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>0.7</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M99">
         <v>500</v>
       </c>
-      <c r="N99" s="3">
+      <c r="N99">
         <v>600</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O99">
         <v>625</v>
       </c>
-      <c r="P99" s="3">
+      <c r="P99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>312</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3">
+      <c r="C100">
+        <v>60</v>
+      </c>
+      <c r="D100">
         <v>313</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3">
+      <c r="E100">
+        <v>61</v>
+      </c>
+      <c r="F100">
         <v>33</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>0.4</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>11</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>0.8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>0.1</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100">
         <v>625</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>312</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3">
+      <c r="C101">
+        <v>60</v>
+      </c>
+      <c r="D101">
         <v>323</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3">
+      <c r="E101">
+        <v>71</v>
+      </c>
+      <c r="F101">
         <v>67</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>0.52</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>11</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>1.6</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>1.2E-2</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101">
         <v>625</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>313</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3">
+      <c r="C102">
+        <v>61</v>
+      </c>
+      <c r="D102">
         <v>323</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3">
+      <c r="E102">
+        <v>71</v>
+      </c>
+      <c r="F102">
         <v>60</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>0.49</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>11</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>1.5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>0.182</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102">
         <v>625</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>314</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3">
+      <c r="C103">
+        <v>62</v>
+      </c>
+      <c r="D103">
         <v>316</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3">
+      <c r="E103">
+        <v>64</v>
+      </c>
+      <c r="F103">
         <v>27</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>0.38</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>11</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>0.7</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M103" s="3">
+      <c r="M103">
         <v>500</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N103">
         <v>600</v>
       </c>
-      <c r="O103" s="3">
+      <c r="O103">
         <v>625</v>
       </c>
-      <c r="P103" s="3">
+      <c r="P103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>315</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3">
+      <c r="C104">
+        <v>63</v>
+      </c>
+      <c r="D104">
         <v>316</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3">
+      <c r="E104">
+        <v>64</v>
+      </c>
+      <c r="F104">
         <v>12</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>0.33</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>11</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>0.3</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>2E-3</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M104">
         <v>500</v>
       </c>
-      <c r="N104" s="3">
+      <c r="N104">
         <v>600</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O104">
         <v>625</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>315</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3">
+      <c r="C105">
+        <v>63</v>
+      </c>
+      <c r="D105">
         <v>321</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3">
+      <c r="E105">
+        <v>69</v>
+      </c>
+      <c r="F105">
         <v>34</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105">
         <v>0.41</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105">
         <v>11</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105">
         <v>0.8</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M105">
         <v>500</v>
       </c>
-      <c r="N105" s="3">
+      <c r="N105">
         <v>600</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O105">
         <v>625</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>315</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3">
+      <c r="C106">
+        <v>63</v>
+      </c>
+      <c r="D106">
         <v>321</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3">
+      <c r="E106">
+        <v>69</v>
+      </c>
+      <c r="F106">
         <v>34</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106">
         <v>0.41</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106">
         <v>11</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106">
         <v>0.8</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M106">
         <v>500</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N106">
         <v>600</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O106">
         <v>625</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>315</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3">
+      <c r="C107">
+        <v>63</v>
+      </c>
+      <c r="D107">
         <v>324</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3">
+      <c r="E107">
+        <v>72</v>
+      </c>
+      <c r="F107">
         <v>36</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107">
         <v>0.41</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107">
         <v>11</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107">
         <v>0.9</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107">
         <v>0.109</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107">
         <v>500</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107">
         <v>600</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O107">
         <v>625</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>208</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>316</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3">
+      <c r="C108">
+        <v>64</v>
+      </c>
+      <c r="D108">
         <v>317</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3">
+      <c r="E108">
+        <v>65</v>
+      </c>
+      <c r="F108">
         <v>18</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108">
         <v>0.35</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108">
         <v>11</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108">
         <v>0.4</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108">
         <v>5.5E-2</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M108">
         <v>500</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N108">
         <v>600</v>
       </c>
-      <c r="O108" s="3">
+      <c r="O108">
         <v>625</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>316</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3">
+      <c r="C109">
+        <v>64</v>
+      </c>
+      <c r="D109">
         <v>319</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3">
+      <c r="E109">
+        <v>67</v>
+      </c>
+      <c r="F109">
         <v>16</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109">
         <v>0.34</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109">
         <v>11</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109">
         <v>0.4</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109">
         <v>2.3E-2</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M109">
         <v>500</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N109">
         <v>600</v>
       </c>
-      <c r="O109" s="3">
+      <c r="O109">
         <v>625</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P109">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>